--- a/dependencies/ADS檔名角度對照表.xlsx
+++ b/dependencies/ADS檔名角度對照表.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albertlai\Desktop\python\91APP-AI-Image-Coding\dependencies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06F4B6B-B370-468E-A81B-93A07A57E5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762F1C8A-E040-43B3-A5AE-BDF283BEC5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="檔名角度對照表" sheetId="1" r:id="rId1"/>
-    <sheet name="移到外層的檔名" sheetId="2" r:id="rId2"/>
-    <sheet name="有條件使用的檔名" sheetId="3" r:id="rId3"/>
-    <sheet name="可以重複分配的角度" sheetId="4" r:id="rId4"/>
-    <sheet name="角度禁止規則" sheetId="5" r:id="rId5"/>
-    <sheet name="商品分類及關鍵字條件" sheetId="6" r:id="rId6"/>
+    <sheet name="基本設定" sheetId="7" r:id="rId1"/>
+    <sheet name="檔名角度對照表" sheetId="1" r:id="rId2"/>
+    <sheet name="移到外層的檔名" sheetId="2" r:id="rId3"/>
+    <sheet name="有條件使用的檔名" sheetId="3" r:id="rId4"/>
+    <sheet name="可以重複分配的角度" sheetId="4" r:id="rId5"/>
+    <sheet name="角度禁止規則" sheetId="5" r:id="rId6"/>
+    <sheet name="商品分類及關鍵字條件" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="156">
   <si>
     <t>_PK_</t>
   </si>
@@ -1320,6 +1321,17 @@
   </si>
   <si>
     <t>內層正面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定前綴</t>
+  </si>
+  <si>
+    <t>主圖上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編圖起始號碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1327,7 +1339,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1420,6 +1432,22 @@
       <name val="Microsoft JhengHei"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1447,7 +1475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1482,6 +1510,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1696,15 +1728,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73704A9-7C7F-4697-8898-5A7D0DEF48DE}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5"/>
+  <cols>
+    <col min="1" max="1" width="20.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="13">
+      <c r="A1" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="13">
+      <c r="A2" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1715,7 +1782,7 @@
     <col min="4" max="16384" width="12.6328125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>72</v>
       </c>
@@ -1725,8 +1792,11 @@
       <c r="C1" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.5" customHeight="1">
+      <c r="D1" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1734,7 +1804,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -1742,7 +1812,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1751,7 +1821,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1760,7 +1830,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1768,7 +1838,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1777,7 +1847,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1786,7 +1856,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>112</v>
       </c>
@@ -1794,7 +1864,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1803,7 +1873,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -1812,7 +1882,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1821,7 +1891,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1830,7 +1900,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1839,7 +1909,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
@@ -1847,7 +1917,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
@@ -2271,13 +2341,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F562283-43C4-6F40-8E99-F4B69534F46B}">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5"/>
@@ -2352,13 +2422,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4DBC44C-807D-5D43-AAE3-822F9A6EA3D6}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
@@ -2433,7 +2503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6C5EC5-3407-1E41-99E1-677AE75AB470}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -2474,14 +2544,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB60398D-CB0F-014D-A085-2F7E6D0280EF}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
@@ -2531,13 +2601,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C2C77B-2893-6044-8984-E8AC02EFAB6F}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>

--- a/dependencies/ADS檔名角度對照表.xlsx
+++ b/dependencies/ADS檔名角度對照表.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albertlai\Desktop\python\91APP-AI-Image-Coding\dependencies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762F1C8A-E040-43B3-A5AE-BDF283BEC5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B8EDDF-A0F9-4BD5-8B98-5C4C0D0715C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" tabRatio="866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本設定" sheetId="7" r:id="rId1"/>
     <sheet name="檔名角度對照表" sheetId="1" r:id="rId2"/>
-    <sheet name="移到外層的檔名" sheetId="2" r:id="rId3"/>
-    <sheet name="有條件使用的檔名" sheetId="3" r:id="rId4"/>
-    <sheet name="可以重複分配的角度" sheetId="4" r:id="rId5"/>
+    <sheet name="不編的檔名" sheetId="2" r:id="rId3"/>
+    <sheet name="可以重複分配的角度" sheetId="4" r:id="rId4"/>
+    <sheet name="有條件使用的檔名" sheetId="3" r:id="rId5"/>
     <sheet name="角度禁止規則" sheetId="5" r:id="rId6"/>
     <sheet name="商品分類及關鍵字條件" sheetId="6" r:id="rId7"/>
   </sheets>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="162">
   <si>
     <t>_PK_</t>
   </si>
@@ -1191,53 +1191,6 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>是否需要關鍵字全部滿足</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (False</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>代表滿足其一即可</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
@@ -1327,11 +1280,456 @@
     <t>指定前綴</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>檔名判斷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>與</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>對應角度</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>圖片出現</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>欄的檔名時，就會分配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>欄的對應角度</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>指定前綴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>預設是資料夾名稱。
+如果填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"ABC"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，檔名就會改成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ABC_01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>.jpg</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>商品分類</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>填寫就代表該檔名出現時，這個資料夾就必定是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>欄的商品分類</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>如果填寫為</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>套裝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(_Btp_,_Fbp_)" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>就代表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>欄檔名必須同時和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_Btp_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_Fbp_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>存在時，資料夾才會被判定是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>套裝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>是否需要關鍵字全部滿足</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (False</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>代表滿足其一即可，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>代表</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>必須全部滿足</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品分類</t>
+  </si>
+  <si>
+    <t>編圖起始號碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>主圖上限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>編圖起始號碼</t>
+    <t>其他</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1339,7 +1737,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1448,6 +1846,93 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1475,7 +1960,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1514,6 +1999,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1729,10 +2224,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73704A9-7C7F-4697-8898-5A7D0DEF48DE}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -1740,19 +2235,25 @@
     <col min="1" max="1" width="20.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13">
+    <row r="1" spans="1:3" ht="13">
       <c r="A1" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1">
+        <v>158</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="13">
+      <c r="A2" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="13">
-      <c r="A2" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2">
+      <c r="C2">
         <v>1</v>
       </c>
     </row>
@@ -1767,11 +2268,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1779,10 +2280,15 @@
     <col min="1" max="1" width="12.6328125" style="4"/>
     <col min="2" max="2" width="25.6328125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.36328125" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="12.6328125" style="4"/>
+    <col min="4" max="4" width="12.6328125" style="4"/>
+    <col min="5" max="5" width="2.36328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="92.26953125" style="4" customWidth="1"/>
+    <col min="7" max="10" width="12.6328125" style="4"/>
+    <col min="11" max="11" width="12.6328125" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="12.6328125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>72</v>
       </c>
@@ -1793,26 +2299,35 @@
         <v>74</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.5" customHeight="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="26">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="39.5">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+      <c r="F3" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="39">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1820,8 +2335,11 @@
       <c r="C4" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+      <c r="F4" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1830,7 +2348,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1838,7 +2356,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1847,7 +2365,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1856,7 +2374,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>112</v>
       </c>
@@ -1864,7 +2382,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1873,7 +2391,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -1882,7 +2400,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1891,7 +2409,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1900,7 +2418,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1909,7 +2427,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
@@ -1917,7 +2435,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
@@ -1935,7 +2453,7 @@
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>89</v>
@@ -1975,7 +2493,7 @@
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>91</v>
@@ -1986,7 +2504,7 @@
         <v>61</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1">
@@ -2007,18 +2525,18 @@
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1">
       <c r="A27" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>149</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1">
@@ -2262,7 +2780,7 @@
         <v>25</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>101</v>
@@ -2345,9 +2863,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F562283-43C4-6F40-8E99-F4B69534F46B}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5"/>
@@ -2423,12 +2941,53 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6C5EC5-3407-1E41-99E1-677AE75AB470}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <cols>
+    <col min="1" max="1" width="17.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.81640625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="13">
+      <c r="A1" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4DBC44C-807D-5D43-AAE3-822F9A6EA3D6}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
@@ -2448,10 +3007,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2464,7 +3023,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>115</v>
@@ -2483,7 +3042,7 @@
         <v>70</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2496,47 +3055,6 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6C5EC5-3407-1E41-99E1-677AE75AB470}">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
-  <cols>
-    <col min="1" max="1" width="17.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.81640625" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="13">
-      <c r="A1" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="8" t="s">
-        <v>131</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2548,10 +3066,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB60398D-CB0F-014D-A085-2F7E6D0280EF}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
@@ -2575,7 +3093,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>129</v>
@@ -2586,7 +3104,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>136</v>
@@ -2605,33 +3123,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C2C77B-2893-6044-8984-E8AC02EFAB6F}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="12.6328125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.6328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.90625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.81640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13">
+    <row r="1" spans="1:3" ht="13.5">
       <c r="A1" s="7" t="s">
         <v>138</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>140</v>
+      <c r="C1" s="16" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>116</v>

--- a/dependencies/ADS檔名角度對照表.xlsx
+++ b/dependencies/ADS檔名角度對照表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albertlai\Desktop\python\91APP-AI-Image-Coding\dependencies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B8EDDF-A0F9-4BD5-8B98-5C4C0D0715C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630A1560-5ACC-4380-9664-A34BB5E14773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" tabRatio="866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" tabRatio="866" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本設定" sheetId="7" r:id="rId1"/>
@@ -1714,10 +1714,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ABC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商品分類</t>
   </si>
   <si>
@@ -1730,6 +1726,10 @@
   </si>
   <si>
     <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1737,7 +1737,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1933,6 +1933,12 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1960,7 +1966,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2009,6 +2015,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2224,31 +2233,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73704A9-7C7F-4697-8898-5A7D0DEF48DE}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" customWidth="1"/>
+    <col min="1" max="1" width="9.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13">
       <c r="A1" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>158</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13">
       <c r="A2" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -2256,6 +2265,9 @@
       <c r="C2">
         <v>1</v>
       </c>
+    </row>
+    <row r="3" spans="1:3" ht="13">
+      <c r="A3" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2268,11 +2280,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2309,9 +2321,6 @@
       <c r="C2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>157</v>
-      </c>
       <c r="F2" s="15" t="s">
         <v>153</v>
       </c>
@@ -2343,7 +2352,7 @@
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="2" t="s">
         <v>77</v>
       </c>
@@ -2386,7 +2395,7 @@
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="2" t="s">
         <v>81</v>
       </c>
@@ -2395,7 +2404,7 @@
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="2" t="s">
         <v>82</v>
       </c>
@@ -2404,7 +2413,7 @@
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="2" t="s">
         <v>83</v>
       </c>
@@ -2471,6 +2480,7 @@
       <c r="A20" s="4" t="s">
         <v>119</v>
       </c>
+      <c r="B20" s="11"/>
       <c r="C20" s="4" t="s">
         <v>90</v>
       </c>
@@ -2479,6 +2489,7 @@
       <c r="A21" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="B21" s="11"/>
       <c r="C21" s="4" t="s">
         <v>91</v>
       </c>
@@ -2704,7 +2715,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1">
       <c r="A49" s="4" t="s">
         <v>45</v>
       </c>
@@ -2712,7 +2723,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>46</v>
       </c>
@@ -2720,7 +2731,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>120</v>
       </c>
@@ -2731,7 +2742,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1">
+    <row r="52" spans="1:4" ht="15.75" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>121</v>
       </c>
@@ -2742,7 +2753,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1">
       <c r="A53" s="4" t="s">
         <v>122</v>
       </c>
@@ -2753,7 +2764,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1">
       <c r="A54" s="4" t="s">
         <v>59</v>
       </c>
@@ -2764,7 +2775,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1">
       <c r="A55" s="4" t="s">
         <v>58</v>
       </c>
@@ -2775,7 +2786,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1">
+    <row r="56" spans="1:4" ht="15.75" customHeight="1">
       <c r="A56" s="4" t="s">
         <v>25</v>
       </c>
@@ -2786,7 +2797,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1">
       <c r="A57" s="4" t="s">
         <v>24</v>
       </c>
@@ -2797,7 +2808,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1">
       <c r="A58" s="4" t="s">
         <v>26</v>
       </c>
@@ -2808,7 +2819,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.75" customHeight="1">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1">
       <c r="A59" s="4" t="s">
         <v>27</v>
       </c>
@@ -2819,7 +2830,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.75" customHeight="1">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1">
       <c r="A60" s="4" t="s">
         <v>16</v>
       </c>
@@ -2829,8 +2840,11 @@
       <c r="C60" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D60" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" customHeight="1">
       <c r="A61" s="4" t="s">
         <v>20</v>
       </c>
@@ -2841,7 +2855,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.75" customHeight="1">
+    <row r="62" spans="1:4" ht="15.75" customHeight="1">
       <c r="A62" s="5" t="s">
         <v>123</v>
       </c>
@@ -2851,6 +2865,9 @@
       <c r="C62" s="4" t="s">
         <v>109</v>
       </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" customHeight="1">
+      <c r="C63" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3067,7 +3084,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>

--- a/dependencies/ADS檔名角度對照表.xlsx
+++ b/dependencies/ADS檔名角度對照表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albertlai\Desktop\python\91APP-AI-Image-Coding\dependencies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630A1560-5ACC-4380-9664-A34BB5E14773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2530F23-464C-4D0C-A08A-A56546F6913D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" tabRatio="866" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="161">
   <si>
     <t>_PK_</t>
   </si>
@@ -1726,10 +1726,6 @@
   </si>
   <si>
     <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2236,7 +2232,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -2283,8 +2279,8 @@
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2715,7 +2711,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1">
       <c r="A49" s="4" t="s">
         <v>45</v>
       </c>
@@ -2723,7 +2719,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>46</v>
       </c>
@@ -2731,7 +2727,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>120</v>
       </c>
@@ -2742,7 +2738,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>121</v>
       </c>
@@ -2753,7 +2749,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1">
+    <row r="53" spans="1:3" ht="15.75" customHeight="1">
       <c r="A53" s="4" t="s">
         <v>122</v>
       </c>
@@ -2764,7 +2760,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1">
+    <row r="54" spans="1:3" ht="15.75" customHeight="1">
       <c r="A54" s="4" t="s">
         <v>59</v>
       </c>
@@ -2775,7 +2771,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1">
+    <row r="55" spans="1:3" ht="15.75" customHeight="1">
       <c r="A55" s="4" t="s">
         <v>58</v>
       </c>
@@ -2786,7 +2782,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1">
+    <row r="56" spans="1:3" ht="15.75" customHeight="1">
       <c r="A56" s="4" t="s">
         <v>25</v>
       </c>
@@ -2797,7 +2793,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1">
+    <row r="57" spans="1:3" ht="15.75" customHeight="1">
       <c r="A57" s="4" t="s">
         <v>24</v>
       </c>
@@ -2808,7 +2804,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1">
+    <row r="58" spans="1:3" ht="15.75" customHeight="1">
       <c r="A58" s="4" t="s">
         <v>26</v>
       </c>
@@ -2819,7 +2815,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1">
+    <row r="59" spans="1:3" ht="15.75" customHeight="1">
       <c r="A59" s="4" t="s">
         <v>27</v>
       </c>
@@ -2830,7 +2826,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1">
+    <row r="60" spans="1:3" ht="15.75" customHeight="1">
       <c r="A60" s="4" t="s">
         <v>16</v>
       </c>
@@ -2840,11 +2836,8 @@
       <c r="C60" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D60" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="61" spans="1:3" ht="15.75" customHeight="1">
       <c r="A61" s="4" t="s">
         <v>20</v>
       </c>
@@ -2855,7 +2848,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1">
+    <row r="62" spans="1:3" ht="15.75" customHeight="1">
       <c r="A62" s="5" t="s">
         <v>123</v>
       </c>
@@ -2866,7 +2859,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1">
+    <row r="63" spans="1:3" ht="15.75" customHeight="1">
       <c r="C63" s="2"/>
     </row>
   </sheetData>
@@ -3004,7 +2997,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
@@ -3084,7 +3077,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>

--- a/dependencies/ADS檔名角度對照表.xlsx
+++ b/dependencies/ADS檔名角度對照表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albertlai\Desktop\python\91APP-AI-Image-Coding\dependencies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2530F23-464C-4D0C-A08A-A56546F6913D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E86CD47-3531-4345-8684-AB44FC5C90D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" tabRatio="866" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" tabRatio="866" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本設定" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="165">
   <si>
     <t>_PK_</t>
   </si>
@@ -460,12 +460,268 @@
         <family val="1"/>
         <scheme val="minor"/>
       </rPr>
+      <t>夜光細節</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>男女模特正面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>男女模特背面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>模特正面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>模特側面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>模特背面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>平拍正面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>平拍背面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>雙面外套</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>模特內層</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>內層</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>三合一外套</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(_Fin_eCom,_Ftp_)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>模特內層正面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>夜光正面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>夜光置中側面</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>三合一外套</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>模特內層側面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>模特內層背面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>套裝上身平拍正面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -475,295 +731,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>夜光正面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>夜光細節</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>男女模特正面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>男女模特背面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>模特正面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>模特側面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>模特背面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>平拍正面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>平拍背面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>雙面外套</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>模特內層</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>內層</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>三合一外套</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(_Fin_eCom,_Ftp_)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>模特內層正面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>夜光正面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>夜光置中側面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>三合一外套</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>模特內層側面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>模特內層背面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>套裝上身平拍正面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="1"/>
@@ -876,10 +843,6 @@
       <t>襪子正面</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_FSL_</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>_SMC_</t>
@@ -1717,15 +1680,39 @@
     <t>商品分類</t>
   </si>
   <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_KV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>編圖起始號碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主圖上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
+    <t>指定前綴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編圖上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_FC_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>襪子正面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平拍正面,襪子正面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜光置中側面,夜光正面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1733,7 +1720,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1935,6 +1922,13 @@
       <name val="Microsoft JhengHei"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1962,7 +1956,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2012,6 +2006,12 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2229,45 +2229,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73704A9-7C7F-4697-8898-5A7D0DEF48DE}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="9.90625" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13">
+    <row r="1" spans="1:7" ht="13">
       <c r="A1" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="13">
+      <c r="D1" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:7" ht="13">
       <c r="A2" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="B2">
+        <v>156</v>
+      </c>
+      <c r="B2" s="13">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="13">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" ht="13">
       <c r="A3" s="17"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2276,24 +2295,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E65" sqref="E65"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" style="4"/>
-    <col min="2" max="2" width="25.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" style="4"/>
-    <col min="5" max="5" width="2.36328125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" style="4"/>
+    <col min="2" max="2" width="25.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" style="4"/>
+    <col min="5" max="5" width="2.453125" style="4" customWidth="1"/>
     <col min="6" max="6" width="92.26953125" style="4" customWidth="1"/>
-    <col min="7" max="10" width="12.6328125" style="4"/>
-    <col min="11" max="11" width="12.6328125" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="12.6328125" style="4"/>
+    <col min="7" max="10" width="12.54296875" style="4"/>
+    <col min="11" max="11" width="12.54296875" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="12.54296875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
@@ -2307,7 +2326,7 @@
         <v>74</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="26">
@@ -2318,7 +2337,7 @@
         <v>75</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="39.5">
@@ -2329,7 +2348,7 @@
         <v>76</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="39">
@@ -2341,7 +2360,7 @@
         <v>76</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
@@ -2381,7 +2400,7 @@
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>80</v>
@@ -2419,8 +2438,8 @@
         <v>12</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>84</v>
+      <c r="C13" s="20" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
@@ -2429,7 +2448,7 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
@@ -2437,7 +2456,7 @@
         <v>23</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
@@ -2445,40 +2464,40 @@
         <v>22</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
@@ -2486,8 +2505,8 @@
         <v>14</v>
       </c>
       <c r="B21" s="11"/>
-      <c r="C21" s="4" t="s">
-        <v>91</v>
+      <c r="C21" s="19" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1">
@@ -2495,15 +2514,15 @@
         <v>60</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1">
@@ -2511,7 +2530,7 @@
         <v>61</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1">
@@ -2519,7 +2538,7 @@
         <v>15</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1">
@@ -2527,340 +2546,347 @@
         <v>57</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A29" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>86</v>
+      <c r="A29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>87</v>
+      <c r="A30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A34" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2" t="s">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A37" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2" t="s">
+    <row r="38" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A38" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A37" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A38" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1">
+    <row r="39" spans="1:4" ht="15.65" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="13"/>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.5" customHeight="1">
+        <v>38</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="13"/>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1">
+        <v>49</v>
+      </c>
+      <c r="D41" s="13"/>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1">
+        <v>50</v>
+      </c>
+      <c r="D42" s="13"/>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1">
+        <v>51</v>
+      </c>
+      <c r="D43" s="13"/>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1">
+        <v>52</v>
+      </c>
+      <c r="D44" s="13"/>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1">
+        <v>53</v>
+      </c>
+      <c r="D45" s="13"/>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1">
+        <v>54</v>
+      </c>
+      <c r="D46" s="13"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1">
+        <v>55</v>
+      </c>
+      <c r="D47" s="13"/>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1">
+        <v>56</v>
+      </c>
+      <c r="D48" s="13"/>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>45</v>
+        <v>118</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1">
+        <v>93</v>
+      </c>
+      <c r="D49" s="13"/>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>46</v>
+        <v>119</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1">
+        <v>94</v>
+      </c>
+      <c r="D50" s="13"/>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1">
+        <v>96</v>
+      </c>
+      <c r="D51" s="13"/>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" customHeight="1">
       <c r="A52" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="13"/>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A53" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" s="13"/>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A54" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" s="13"/>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A55" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55" s="13"/>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A56" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D56" s="13"/>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A57" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" s="13"/>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A58" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D58" s="13"/>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A59" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D59" s="13"/>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A60" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A53" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A54" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A55" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A56" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A57" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A58" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A59" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A60" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="B60" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A61" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B61" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A62" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C63" s="2"/>
+      <c r="D60" s="13"/>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" customHeight="1">
+      <c r="C61" s="18"/>
+      <c r="D61" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2875,7 +2901,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5"/>
@@ -2886,7 +2912,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -2936,12 +2962,12 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="8" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2967,22 +2993,22 @@
   <sheetData>
     <row r="1" spans="1:1" ht="13">
       <c r="A1" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2993,58 +3019,58 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4DBC44C-807D-5D43-AAE3-822F9A6EA3D6}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="8.81640625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="13">
       <c r="A1" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3052,19 +3078,27 @@
         <v>70</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>142</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="4"/>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3076,7 +3110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB60398D-CB0F-014D-A085-2F7E6D0280EF}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
@@ -3084,7 +3118,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="32.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.54296875" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="64.81640625" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.81640625" style="8"/>
@@ -3092,35 +3126,35 @@
   <sheetData>
     <row r="1" spans="1:3" ht="13">
       <c r="A1" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3133,36 +3167,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C2C77B-2893-6044-8984-E8AC02EFAB6F}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.6328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.81640625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.81640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.5">
       <c r="A1" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C2" s="8" t="b">
         <v>0</v>
